--- a/public/production.xlsx
+++ b/public/production.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sheet1">Sheet1!$A$1:$H$130</definedName>
+    <definedName name="Sheet1">Sheet1!$A$1:$H$124</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="57">
   <si>
     <t>Incident ID</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>V-1201</t>
-  </si>
-  <si>
-    <t>Preparation for Planned Shutdown</t>
   </si>
   <si>
     <t>P1</t>
@@ -260,10 +257,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H130" totalsRowShown="0">
-  <autoFilter ref="A1:H130"/>
-  <sortState ref="A2:H130">
-    <sortCondition ref="B1:B130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H124" totalsRowShown="0">
+  <autoFilter ref="A1:H124"/>
+  <sortState ref="A2:H124">
+    <sortCondition ref="B1:B124"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Incident ID"/>
@@ -600,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +650,7 @@
         <v>42749</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>124980.33986913174</v>
@@ -668,7 +665,7 @@
         <v>420.69623507615597</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -679,7 +676,7 @@
         <v>42762</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>14009.988091211872</v>
@@ -694,7 +691,7 @@
         <v>57.940800761947202</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -705,7 +702,7 @@
         <v>42765</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>157313.27156947262</v>
@@ -720,283 +717,301 @@
         <v>767.79080076194703</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>42768</v>
+        <v>42769</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>6196.4941765456388</v>
+        <v>151692.04399446308</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>13.861012734411799</v>
+        <v>512.30589556103996</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>42769</v>
+        <v>42794</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>151692.04399446308</v>
+        <v>152990.35962910001</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>512.30589556103996</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
+        <v>806.54889021348504</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>42769</v>
+        <v>42795</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>16156.676785241305</v>
+        <v>119480.75678105175</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>49.411012734411798</v>
+        <v>627.17799431302001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>42770</v>
+        <v>42796</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>245393.41558269784</v>
+        <v>1299617.6795987349</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>833.66131331687802</v>
+        <v>3849.2211554589098</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>42771</v>
+        <v>42796</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>16969.02338664222</v>
+        <v>146653.34634626872</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>102.38072525217</v>
+        <v>772.62799431302005</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42797</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>1299617.6795987349</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>42772</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>40072.609452048484</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>187.04148376057799</v>
+        <v>3849.2211554589098</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>42772</v>
+        <v>42797</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>39380.734262440914</v>
+        <v>142560.17730279043</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>258.93937373914702</v>
+        <v>750.71799431301997</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>42794</v>
+        <v>42798</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>152990.35962910001</v>
+        <v>1300519.2116901872</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>806.54889021348504</v>
+        <v>3851.8960832945399</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>42795</v>
+        <v>42798</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>119480.75678105175</v>
+        <v>94544.371389747394</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>627.17799431302001</v>
+        <v>493.69799431301999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>42796</v>
+        <v>42799</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>1299617.6795987349</v>
+        <v>1300519.2116901872</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>3849.2211554589098</v>
+        <v>3851.8960832945399</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>42796</v>
+        <v>42803</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>146653.34634626872</v>
+        <v>15276.869030029915</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>772.62799431302005</v>
+        <v>793.00262683693597</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>42797</v>
+        <v>42804</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>1299617.6795987349</v>
+        <v>15276.869030029915</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -1005,370 +1020,364 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>3849.2211554589098</v>
+        <v>793.00262683693597</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>42797</v>
+        <v>42804</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>142560.17730279043</v>
+        <v>224936.45172489827</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>750.71799431301997</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
+        <v>1265.5625175295099</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>42798</v>
+        <v>42805</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>1300519.2116901872</v>
+        <v>86360.858550985213</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>3851.8960832945399</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
+        <v>477.79251752951399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>42798</v>
+        <v>42805</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>94544.371389747394</v>
+        <v>68707.339671206966</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>493.69799431301999</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
+        <v>367.34016801081498</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
-        <v>42799</v>
+        <v>42806</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>1300519.2116901872</v>
+        <v>44812.983724898346</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>3851.8960832945399</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
+        <v>241.60251752951399</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>42803</v>
+        <v>42806</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>15276.869030029915</v>
+        <v>58829.708584250438</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>793.00262683693597</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
+        <v>312.690168010815</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
-        <v>42804</v>
+        <v>42807</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>15276.869030029915</v>
+        <v>26257.926366859174</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>793.00262683693597</v>
-      </c>
-      <c r="H22" t="s">
-        <v>50</v>
+        <v>132.48016801081499</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>42804</v>
+        <v>42808</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>224936.45172489827</v>
+        <v>10750.963841476045</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>1265.5625175295099</v>
+        <v>45.147994313020298</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>42805</v>
+        <v>42809</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>86360.858550985213</v>
+        <v>12252.521203942957</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>477.79251752951399</v>
+        <v>608.00262683693597</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>42805</v>
+        <v>42818</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>68707.339671206966</v>
+        <v>15276.869030029915</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G25">
-        <v>367.34016801081498</v>
+        <v>793.00262683693597</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>42806</v>
+        <v>42829</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>44812.983724898346</v>
+        <v>19243.421731798524</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <v>241.60251752951399</v>
+        <v>1035.6374995515</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>42806</v>
+        <v>42837</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27">
-        <v>58829.708584250438</v>
+        <v>12426.378253537654</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>312.690168010815</v>
+        <v>618.63749955150399</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42841</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>599039.64326209133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>42807</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>26257.926366859174</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
       <c r="G28">
-        <v>132.48016801081499</v>
+        <v>1830.9382063804801</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>42808</v>
+        <v>42842</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>10750.963841476045</v>
+        <v>1278165.300543674</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <v>45.147994313020298</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
+        <v>3914.7015625006002</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>12252.521203942957</v>
+        <v>28309.497295642872</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G30">
-        <v>608.00262683693597</v>
+        <v>139.83802745680001</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>42818</v>
+        <v>42843</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>15276.869030029915</v>
+        <v>42322.967034773304</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1377,174 +1386,180 @@
         <v>24</v>
       </c>
       <c r="G31">
-        <v>793.00262683693597</v>
+        <v>215.2180274568</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>42829</v>
+        <v>42844</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>19243.421731798524</v>
+        <v>10315.640522804219</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>1035.6374995515</v>
+        <v>43.038027456800101</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42844</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>42837</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
       <c r="D33">
-        <v>12426.378253537654</v>
+        <v>55274.922947816958</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G33">
-        <v>618.63749955150399</v>
+        <v>284.88802745679999</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
-        <v>42841</v>
+        <v>42847</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>599039.64326209133</v>
+        <v>6051.1661647162</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>1830.9382063804801</v>
+        <v>20.680173611177999</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
-        <v>42842</v>
+        <v>42849</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>1278165.300543674</v>
+        <v>19243.421731798524</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>3914.7015625006002</v>
+        <v>1035.6374995515</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
-        <v>42842</v>
+        <v>42867</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>28309.497295642872</v>
+        <v>5891.4384393775699</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>139.83802745680001</v>
+        <v>19.797961153104001</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
-        <v>42843</v>
+        <v>42868</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>42322.967034773304</v>
+        <v>10317.95270024713</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>215.2180274568</v>
+        <v>44.287961153104</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
-        <v>42844</v>
+        <v>42874</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>10315.640522804219</v>
+        <v>10732.070930061391</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1553,50 +1568,50 @@
         <v>15</v>
       </c>
       <c r="G38">
-        <v>43.038027456800101</v>
+        <v>48.707994313020201</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
-        <v>42844</v>
+        <v>42877</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>55274.922947816958</v>
+        <v>35078.601659191831</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>284.88802745679999</v>
+        <v>163.33799431302</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1">
-        <v>42847</v>
+        <v>42880</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>6051.1661647162</v>
+        <v>18186.300312743566</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1605,76 +1620,70 @@
         <v>10</v>
       </c>
       <c r="G40">
-        <v>20.680173611177999</v>
+        <v>76.877994313020295</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1">
-        <v>42849</v>
+        <v>42897</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>19243.421731798524</v>
+        <v>4422.3585102777961</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>1035.6374995515</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
+        <v>11.670173611178001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
-        <v>42867</v>
+        <v>42899</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>5891.4384393775699</v>
+        <v>11679.383727669088</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G42">
-        <v>19.797961153104001</v>
-      </c>
-      <c r="H42" t="s">
-        <v>22</v>
+        <v>51.820173611177999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
-        <v>42868</v>
+        <v>42902</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>10317.95270024713</v>
+        <v>13197.665466799523</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1683,50 +1692,50 @@
         <v>11</v>
       </c>
       <c r="G43">
-        <v>44.287961153104</v>
+        <v>60.220173611177998</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
-        <v>42874</v>
+        <v>42903</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>10732.070930061391</v>
+        <v>8216.2553798430017</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>48.707994313020201</v>
+        <v>32.660173611178003</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
-        <v>42877</v>
+        <v>42904</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>35078.601659191831</v>
+        <v>13020.532597234305</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1735,122 +1744,128 @@
         <v>11</v>
       </c>
       <c r="G45">
-        <v>163.33799431302</v>
+        <v>59.240173611178001</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
-        <v>42880</v>
+        <v>42909</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>18186.300312743566</v>
+        <v>5945.6257238949438</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46">
-        <v>76.877994313020295</v>
+        <v>20.100173611178</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1">
-        <v>42897</v>
+        <v>42932</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>4422.3585102777961</v>
+        <v>6217.4784973436745</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>11.670173611178001</v>
+        <v>21.600241837379301</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
-        <v>42899</v>
+        <v>42943</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>11679.383727669088</v>
+        <v>11449.968712985132</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>51.820173611177999</v>
+        <v>50.550918983608703</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1">
-        <v>42902</v>
+        <v>42949</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>13197.665466799523</v>
+        <v>4062.0826965113129</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>60.220173611177998</v>
+        <v>9.6769224525546598</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
-        <v>42903</v>
+        <v>43008</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>8216.2553798430017</v>
+        <v>47314.820481903917</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1859,24 +1874,24 @@
         <v>11</v>
       </c>
       <c r="G50">
-        <v>32.660173611178003</v>
+        <v>121.91305902047</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
-        <v>42904</v>
+        <v>43011</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>13020.532597234305</v>
+        <v>13463.779875580087</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1885,24 +1900,24 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <v>59.240173611178001</v>
+        <v>63.797994313020403</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
-        <v>42909</v>
+        <v>43012</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>5945.6257238949438</v>
+        <v>17179.658136449609</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1911,24 +1926,24 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <v>20.100173611178</v>
+        <v>85.057994313020103</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
-        <v>42932</v>
+        <v>43013</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>6217.4784973436745</v>
+        <v>19138.97117992787</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -1937,24 +1952,24 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <v>21.600241837379301</v>
+        <v>96.267994313020196</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1">
-        <v>42943</v>
+        <v>43014</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>11449.968712985132</v>
+        <v>10712.701614710479</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1963,50 +1978,50 @@
         <v>11</v>
       </c>
       <c r="G54">
-        <v>50.550918983608703</v>
+        <v>48.057994313020103</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
-        <v>42949</v>
+        <v>43015</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>4062.0826965113129</v>
+        <v>14400.614658188741</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55">
-        <v>9.6769224525546598</v>
+        <v>69.157994313019998</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
-        <v>43008</v>
+        <v>43016</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56">
-        <v>47314.820481903917</v>
+        <v>15125.374145519261</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2015,24 +2030,24 @@
         <v>11</v>
       </c>
       <c r="G56">
-        <v>121.91305902047</v>
+        <v>67.977994313020204</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
-        <v>43011</v>
+        <v>43017</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>13463.779875580087</v>
+        <v>14850.195884649696</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -2041,24 +2056,24 @@
         <v>11</v>
       </c>
       <c r="G57">
-        <v>63.797994313020403</v>
+        <v>66.517994313020196</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1">
-        <v>43012</v>
+        <v>43018</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>17179.658136449609</v>
+        <v>14039.739362910523</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -2067,50 +2082,47 @@
         <v>11</v>
       </c>
       <c r="G58">
-        <v>85.057994313020103</v>
+        <v>62.21799431302</v>
       </c>
       <c r="H58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
-        <v>43013</v>
+        <v>43020</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>19138.97117992787</v>
+        <v>60408.597743725222</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>96.267994313020196</v>
-      </c>
-      <c r="H59" t="s">
-        <v>40</v>
+        <v>321.41796115310399</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
-        <v>43014</v>
+        <v>43020</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>10712.701614710479</v>
+        <v>12096.528493345306</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -2119,76 +2131,70 @@
         <v>11</v>
       </c>
       <c r="G60">
-        <v>48.057994313020103</v>
+        <v>51.907994313019998</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1">
-        <v>43015</v>
+        <v>43021</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>14400.614658188741</v>
+        <v>46552.469395899134</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>69.157994313019998</v>
-      </c>
-      <c r="H61" t="s">
-        <v>40</v>
+        <v>244.75796115310399</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1">
-        <v>43016</v>
+        <v>43022</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D62">
-        <v>15125.374145519261</v>
+        <v>56750.261743725219</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <v>67.977994313020204</v>
-      </c>
-      <c r="H62" t="s">
-        <v>40</v>
+        <v>301.17796115310398</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1">
-        <v>43017</v>
+        <v>43022</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>14850.195884649696</v>
+        <v>11565.019797693174</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2197,24 +2203,24 @@
         <v>11</v>
       </c>
       <c r="G63">
-        <v>66.517994313020196</v>
+        <v>49.087994313020303</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1">
-        <v>43018</v>
+        <v>43023</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>14039.739362910523</v>
+        <v>10441.689362910565</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -2223,47 +2229,50 @@
         <v>11</v>
       </c>
       <c r="G64">
-        <v>62.21799431302</v>
+        <v>43.127994313020302</v>
       </c>
       <c r="H64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
-        <v>43020</v>
+        <v>43026</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>60408.597743725222</v>
+        <v>10758.332841171392</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65">
-        <v>321.41796115310399</v>
+        <v>44.807994313020103</v>
+      </c>
+      <c r="H65" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
-        <v>43020</v>
+        <v>43027</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66">
-        <v>12096.528493345306</v>
+        <v>14870.928493345349</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2272,70 +2281,76 @@
         <v>11</v>
       </c>
       <c r="G66">
-        <v>51.907994313019998</v>
+        <v>66.627994313020295</v>
       </c>
       <c r="H66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1">
-        <v>43021</v>
+        <v>43028</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>46552.469395899134</v>
+        <v>16652.048058562697</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67">
-        <v>244.75796115310399</v>
+        <v>76.077994313020099</v>
+      </c>
+      <c r="H67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
-        <v>43022</v>
+        <v>43029</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>56750.261743725219</v>
+        <v>19096.611102041003</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68">
-        <v>301.17796115310398</v>
+        <v>89.047994313020396</v>
+      </c>
+      <c r="H68" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1">
-        <v>43022</v>
+        <v>43030</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>11565.019797693174</v>
+        <v>16316.556754214915</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -2344,24 +2359,24 @@
         <v>11</v>
       </c>
       <c r="G69">
-        <v>49.087994313020303</v>
+        <v>74.297994313020396</v>
       </c>
       <c r="H69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1">
-        <v>43023</v>
+        <v>43031</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>10441.689362910565</v>
+        <v>15820.858928127958</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -2370,24 +2385,24 @@
         <v>11</v>
       </c>
       <c r="G70">
-        <v>43.127994313020302</v>
+        <v>71.667994313020202</v>
       </c>
       <c r="H70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
-        <v>43026</v>
+        <v>43032</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>10758.332841171392</v>
+        <v>40100.62849334535</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -2396,24 +2411,24 @@
         <v>11</v>
       </c>
       <c r="G71">
-        <v>44.807994313020103</v>
+        <v>200.48799431302001</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1">
-        <v>43027</v>
+        <v>43033</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>14870.928493345349</v>
+        <v>36913.461102040957</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -2422,24 +2437,24 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>66.627994313020295</v>
+        <v>183.57799431302001</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1">
-        <v>43028</v>
+        <v>43034</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>16652.048058562697</v>
+        <v>21690.071971606176</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2448,24 +2463,24 @@
         <v>11</v>
       </c>
       <c r="G73">
-        <v>76.077994313020099</v>
+        <v>102.80799431302</v>
       </c>
       <c r="H73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1">
-        <v>43029</v>
+        <v>43035</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>19096.611102041003</v>
+        <v>21805.043710736652</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2474,24 +2489,24 @@
         <v>11</v>
       </c>
       <c r="G74">
-        <v>89.047994313020396</v>
+        <v>103.41799431302</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1">
-        <v>43030</v>
+        <v>43036</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>16316.556754214915</v>
+        <v>17617.056754214871</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -2500,24 +2515,24 @@
         <v>11</v>
       </c>
       <c r="G75">
-        <v>74.297994313020396</v>
+        <v>81.197994313020004</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
-        <v>43031</v>
+        <v>43037</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>15820.858928127958</v>
+        <v>18780.418166541524</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -2526,24 +2541,24 @@
         <v>11</v>
       </c>
       <c r="G76">
-        <v>71.667994313020202</v>
+        <v>79.2779943130204</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1">
-        <v>43032</v>
+        <v>43038</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77">
-        <v>40100.62849334535</v>
+        <v>20197.05077523713</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -2552,102 +2567,102 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>200.48799431302001</v>
+        <v>86.097994313020095</v>
       </c>
       <c r="H77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1">
-        <v>43033</v>
+        <v>43039</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78">
-        <v>36913.461102040957</v>
+        <v>176733.32891679698</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G78">
-        <v>183.57799431302001</v>
+        <v>839.70017060938301</v>
       </c>
       <c r="H78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1">
-        <v>43034</v>
+        <v>43040</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>21690.071971606176</v>
+        <v>253555.08374673306</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G79">
-        <v>102.80799431302</v>
+        <v>1209.5380274567999</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1">
-        <v>43035</v>
+        <v>43041</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80">
-        <v>21805.043710736652</v>
+        <v>34336.380485863607</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>103.41799431302</v>
+        <v>154.16802745679999</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1">
-        <v>43036</v>
+        <v>43046</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>17617.056754214871</v>
+        <v>32248.820703254871</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -2656,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="G81">
-        <v>81.197994313020004</v>
+        <v>144.11802745680001</v>
       </c>
       <c r="H81" t="s">
         <v>40</v>
@@ -2664,16 +2679,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1">
-        <v>43037</v>
+        <v>43047</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82">
-        <v>18780.418166541524</v>
+        <v>35082.085920646219</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -2682,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>79.2779943130204</v>
+        <v>157.75802745679999</v>
       </c>
       <c r="H82" t="s">
         <v>40</v>
@@ -2690,16 +2705,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1">
-        <v>43038</v>
+        <v>43048</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>20197.05077523713</v>
+        <v>22224.379398907087</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -2708,7 +2723,7 @@
         <v>11</v>
       </c>
       <c r="G83">
-        <v>86.097994313020095</v>
+        <v>95.858027456800301</v>
       </c>
       <c r="H83" t="s">
         <v>40</v>
@@ -2716,94 +2731,91 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1">
-        <v>43039</v>
+        <v>43049</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>176733.32891679698</v>
+        <v>52187.613094559129</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>839.70017060938301</v>
+        <v>240.10802745679999</v>
       </c>
       <c r="H84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1">
-        <v>43040</v>
+        <v>43050</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>253555.08374673306</v>
+        <v>53008.096790211304</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G85">
-        <v>1209.5380274567999</v>
+        <v>244.0580274568</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1">
-        <v>43041</v>
+        <v>43051</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86">
-        <v>34336.380485863607</v>
+        <v>64105.290684190877</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G86">
-        <v>154.16802745679999</v>
-      </c>
-      <c r="H86" t="s">
-        <v>35</v>
+        <v>341.87017361117802</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1">
-        <v>43046</v>
+        <v>43051</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87">
-        <v>32248.820703254871</v>
+        <v>47048.684833689571</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -2812,50 +2824,47 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>144.11802745680001</v>
+        <v>215.36802745680001</v>
       </c>
       <c r="H87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1">
-        <v>43047</v>
+        <v>43052</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D88">
-        <v>35082.085920646219</v>
+        <v>60607.820249408273</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>157.75802745679999</v>
-      </c>
-      <c r="H88" t="s">
-        <v>41</v>
+        <v>322.520173611178</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1">
-        <v>43048</v>
+        <v>43052</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89">
-        <v>22224.379398907087</v>
+        <v>26719.383746733176</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -2864,50 +2873,47 @@
         <v>11</v>
       </c>
       <c r="G89">
-        <v>95.858027456800301</v>
+        <v>117.4980274568</v>
       </c>
       <c r="H89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1">
-        <v>43049</v>
+        <v>43053</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>52187.613094559129</v>
+        <v>67107.512075495208</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G90">
-        <v>240.10802745679999</v>
-      </c>
-      <c r="H90" t="s">
-        <v>41</v>
+        <v>358.48017361117797</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1">
-        <v>43050</v>
+        <v>43053</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91">
-        <v>53008.096790211304</v>
+        <v>14725.781572820088</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -2916,24 +2922,24 @@
         <v>11</v>
       </c>
       <c r="G91">
-        <v>244.0580274568</v>
+        <v>59.758027456799901</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1">
-        <v>43051</v>
+        <v>43054</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>64105.290684190877</v>
+        <v>72260.632597234347</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2942,21 +2948,21 @@
         <v>13</v>
       </c>
       <c r="G92">
-        <v>341.87017361117802</v>
+        <v>386.99017361117802</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1">
-        <v>43051</v>
+        <v>43054</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>47048.684833689571</v>
+        <v>34143.203311950565</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2965,47 +2971,50 @@
         <v>11</v>
       </c>
       <c r="G93">
-        <v>215.36802745680001</v>
+        <v>153.23802745680001</v>
       </c>
       <c r="H93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1">
-        <v>43052</v>
+        <v>43055</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94">
-        <v>60607.820249408273</v>
+        <v>24727.373964124479</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>322.520173611178</v>
+        <v>107.9080274568</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1">
-        <v>43052</v>
+        <v>43056</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95">
-        <v>26719.383746733176</v>
+        <v>22968.007659776653</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -3014,47 +3023,50 @@
         <v>11</v>
       </c>
       <c r="G95">
-        <v>117.4980274568</v>
+        <v>99.438027456800199</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1">
-        <v>43053</v>
+        <v>43057</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96">
-        <v>67107.512075495208</v>
+        <v>13111.817442385305</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G96">
-        <v>358.48017361117797</v>
+        <v>51.988027456799998</v>
+      </c>
+      <c r="H96" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1">
-        <v>43053</v>
+        <v>43058</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97">
-        <v>14725.781572820088</v>
+        <v>21919.034833689653</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -3063,47 +3075,50 @@
         <v>11</v>
       </c>
       <c r="G97">
-        <v>59.758027456799901</v>
+        <v>94.388027456800003</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1">
-        <v>43054</v>
+        <v>43059</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98">
-        <v>72260.632597234347</v>
+        <v>16057.250051081</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G98">
-        <v>386.99017361117802</v>
+        <v>66.168027456800203</v>
+      </c>
+      <c r="H98" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1">
-        <v>43054</v>
+        <v>43060</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99">
-        <v>34143.203311950565</v>
+        <v>13946.841355428784</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3112,258 +3127,243 @@
         <v>11</v>
       </c>
       <c r="G99">
-        <v>153.23802745680001</v>
+        <v>56.008027456799901</v>
       </c>
       <c r="H99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1">
-        <v>43055</v>
+        <v>43061</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100">
-        <v>24727.373964124479</v>
+        <v>275157.69244238525</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G100">
-        <v>107.9080274568</v>
+        <v>1313.5380274567999</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1">
-        <v>43056</v>
+        <v>43062</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101">
-        <v>22968.007659776653</v>
+        <v>166621.2011380374</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G101">
-        <v>99.438027456800199</v>
+        <v>791.01802745680004</v>
       </c>
       <c r="H101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1">
-        <v>43057</v>
+        <v>43063</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102">
-        <v>13111.817442385305</v>
+        <v>31692.138094559265</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G102">
-        <v>51.988027456799998</v>
+        <v>141.4380274568</v>
       </c>
       <c r="H102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1">
-        <v>43058</v>
+        <v>43064</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D103">
-        <v>21919.034833689653</v>
+        <v>68560.718097235222</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G103">
-        <v>94.388027456800003</v>
-      </c>
-      <c r="H103" t="s">
-        <v>41</v>
+        <v>337.31017361117802</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1">
-        <v>43059</v>
+        <v>43064</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104">
-        <v>16057.250051081</v>
+        <v>11391.917442385349</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G104">
-        <v>66.168027456800203</v>
+        <v>43.708027456800203</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1">
-        <v>43060</v>
+        <v>43065</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105">
-        <v>13946.841355428784</v>
+        <v>59157.086097235224</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G105">
-        <v>56.008027456799901</v>
-      </c>
-      <c r="H105" t="s">
-        <v>41</v>
+        <v>289.43017361117802</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1">
-        <v>43061</v>
+        <v>43066</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D106">
-        <v>275157.69244238525</v>
+        <v>59369.198097235218</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G106">
-        <v>1313.5380274567999</v>
-      </c>
-      <c r="H106" t="s">
-        <v>43</v>
+        <v>290.510173611178</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1">
-        <v>43062</v>
+        <v>43067</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D107">
-        <v>166621.2011380374</v>
+        <v>57085.066097235227</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G107">
-        <v>791.01802745680004</v>
-      </c>
-      <c r="H107" t="s">
-        <v>43</v>
+        <v>278.88017361117801</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1">
-        <v>43063</v>
+        <v>43068</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D108">
-        <v>31692.138094559265</v>
+        <v>62207.178097235228</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G108">
-        <v>141.4380274568</v>
-      </c>
-      <c r="H108" t="s">
-        <v>43</v>
+        <v>304.96017361117799</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B109" s="1">
-        <v>43064</v>
+        <v>43069</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109">
-        <v>68560.718097235222</v>
+        <v>63697.22398017392</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3372,70 +3372,70 @@
         <v>13</v>
       </c>
       <c r="G109">
-        <v>337.31017361117802</v>
+        <v>312.54696527583502</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B110" s="1">
-        <v>43064</v>
+        <v>43070</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D110">
-        <v>11391.917442385349</v>
+        <v>52031.692997324353</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110">
-        <v>43.708027456800203</v>
-      </c>
-      <c r="H110" t="s">
-        <v>43</v>
+        <v>253.15016801081501</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1">
-        <v>43065</v>
+        <v>43070</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D111">
-        <v>59157.086097235224</v>
+        <v>13599.050296852609</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G111">
-        <v>289.43017361117802</v>
+        <v>54.327994313020099</v>
+      </c>
+      <c r="H111" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1">
-        <v>43066</v>
+        <v>43071</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112">
-        <v>59369.198097235218</v>
+        <v>55961.656997324353</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3444,21 +3444,21 @@
         <v>13</v>
       </c>
       <c r="G112">
-        <v>290.510173611178</v>
+        <v>273.16016801081503</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B113" s="1">
-        <v>43067</v>
+        <v>43072</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113">
-        <v>57085.066097235227</v>
+        <v>72394.444997324346</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -3467,90 +3467,99 @@
         <v>13</v>
       </c>
       <c r="G113">
-        <v>278.88017361117801</v>
+        <v>356.83016801081499</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1">
-        <v>43068</v>
+        <v>43076</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114">
-        <v>62207.178097235228</v>
+        <v>14579.578992504827</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G114">
-        <v>304.96017361117799</v>
+        <v>59.047994313020403</v>
+      </c>
+      <c r="H114" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B115" s="1">
-        <v>43069</v>
+        <v>43077</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115">
-        <v>63697.22398017392</v>
+        <v>15138.397253374305</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G115">
-        <v>312.54696527583502</v>
+        <v>61.737994313020003</v>
+      </c>
+      <c r="H115" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B116" s="1">
-        <v>43070</v>
+        <v>43081</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D116">
-        <v>52031.692997324353</v>
+        <v>13536.728557722219</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G116">
-        <v>253.15016801081501</v>
+        <v>54.0279943130204</v>
+      </c>
+      <c r="H116" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1">
-        <v>43070</v>
+        <v>43084</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117">
-        <v>13599.050296852609</v>
+        <v>17735.136383809091</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -3559,70 +3568,76 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <v>54.327994313020099</v>
+        <v>74.237994313019996</v>
       </c>
       <c r="H117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1">
-        <v>43071</v>
+        <v>43085</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118">
-        <v>55961.656997324353</v>
+        <v>16895.870296852565</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G118">
-        <v>273.16016801081503</v>
+        <v>70.197994313020004</v>
+      </c>
+      <c r="H118" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B119" s="1">
-        <v>43072</v>
+        <v>43086</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119">
-        <v>72394.444997324346</v>
+        <v>16561.410296852653</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G119">
-        <v>356.83016801081499</v>
+        <v>68.587994313020303</v>
+      </c>
+      <c r="H119" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B120" s="1">
-        <v>43076</v>
+        <v>43087</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120">
-        <v>14579.578992504827</v>
+        <v>13445.323340330913</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -3631,24 +3646,24 @@
         <v>11</v>
       </c>
       <c r="G120">
-        <v>59.047994313020403</v>
+        <v>53.587994313020303</v>
       </c>
       <c r="H120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B121" s="1">
-        <v>43077</v>
+        <v>43089</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121">
-        <v>15138.397253374305</v>
+        <v>13291.59638380913</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -3657,33 +3672,33 @@
         <v>11</v>
       </c>
       <c r="G121">
-        <v>61.737994313020003</v>
+        <v>52.847994313020102</v>
       </c>
       <c r="H121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1">
-        <v>43081</v>
+        <v>43090</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D122">
-        <v>13536.728557722219</v>
+        <v>16497.436471457957</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>54.0279943130204</v>
+        <v>1165.9829837152699</v>
       </c>
       <c r="H122" t="s">
         <v>41</v>
@@ -3691,25 +3706,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1">
-        <v>43084</v>
+        <v>43091</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D123">
-        <v>17735.136383809091</v>
+        <v>16497.436471457957</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>74.237994313019996</v>
+        <v>1165.9829837152699</v>
       </c>
       <c r="H123" t="s">
         <v>41</v>
@@ -3717,184 +3732,28 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B124" s="1">
-        <v>43085</v>
+        <v>43092</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D124">
-        <v>16895.870296852565</v>
+        <v>16497.436471457957</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>70.197994313020004</v>
+        <v>1165.9829837152699</v>
       </c>
       <c r="H124" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1">
-        <v>43086</v>
-      </c>
-      <c r="C125" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125">
-        <v>16561.410296852653</v>
-      </c>
-      <c r="E125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125">
-        <v>68.587994313020303</v>
-      </c>
-      <c r="H125" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1">
-        <v>43087</v>
-      </c>
-      <c r="C126" t="s">
-        <v>32</v>
-      </c>
-      <c r="D126">
-        <v>13445.323340330913</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126">
-        <v>53.587994313020303</v>
-      </c>
-      <c r="H126" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1">
-        <v>43089</v>
-      </c>
-      <c r="C127" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127">
-        <v>13291.59638380913</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127">
-        <v>52.847994313020102</v>
-      </c>
-      <c r="H127" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1">
-        <v>43090</v>
-      </c>
-      <c r="C128" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128">
-        <v>16497.436471457957</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128">
-        <v>1165.9829837152699</v>
-      </c>
-      <c r="H128" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1">
-        <v>43091</v>
-      </c>
-      <c r="C129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129">
-        <v>16497.436471457957</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129">
-        <v>1165.9829837152699</v>
-      </c>
-      <c r="H129" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1">
-        <v>43092</v>
-      </c>
-      <c r="C130" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130">
-        <v>16497.436471457957</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130">
-        <v>1165.9829837152699</v>
-      </c>
-      <c r="H130" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
